--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T14:39:04+00:00</t>
+    <t>2022-01-31T16:29:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T16:29:45+00:00</t>
+    <t>2022-01-31T20:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T20:10:04+00:00</t>
+    <t>2022-02-11T00:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T00:28:19+00:00</t>
+    <t>2022-02-11T01:45:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T01:45:45+00:00</t>
+    <t>2022-02-13T22:11:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-13T22:11:31+00:00</t>
+    <t>2022-03-01T19:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T19:29:42+00:00</t>
+    <t>2022-03-04T23:14:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T23:14:40+00:00</t>
+    <t>2022-03-05T00:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T00:52:55+00:00</t>
+    <t>2022-03-05T01:03:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:03:34+00:00</t>
+    <t>2022-03-05T01:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:09:46+00:00</t>
+    <t>2022-03-18T16:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T16:50:55+00:00</t>
+    <t>2022-03-19T18:10:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:10:29+00:00</t>
+    <t>2022-03-19T18:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:27:00+00:00</t>
+    <t>2022-03-20T18:26:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T18:26:18+00:00</t>
+    <t>2022-03-20T19:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T19:00:26+00:00</t>
+    <t>2022-03-21T17:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T17:45:13+00:00</t>
+    <t>2022-03-21T18:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T18:09:33+00:00</t>
+    <t>2022-03-22T20:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:54:15+00:00</t>
+    <t>2022-03-23T00:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:01:05+00:00</t>
+    <t>2022-03-23T00:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:19:03+00:00</t>
+    <t>2022-03-23T00:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:33:43+00:00</t>
+    <t>2022-03-23T18:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T18:40:06+00:00</t>
+    <t>2022-03-23T19:11:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:11:09+00:00</t>
+    <t>2022-03-23T19:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:27:55+00:00</t>
+    <t>2022-03-23T20:20:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:20:45+00:00</t>
+    <t>2022-03-23T20:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:39:07+00:00</t>
+    <t>2022-03-23T21:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T21:03:35+00:00</t>
+    <t>2022-03-24T19:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:03:35+00:00</t>
+    <t>2022-03-24T19:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:25:05+00:00</t>
+    <t>2022-03-24T20:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:10:48+00:00</t>
+    <t>2022-03-24T20:26:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:26:37+00:00</t>
+    <t>2022-03-26T21:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:07:52+00:00</t>
+    <t>2022-03-26T21:44:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:44:34+00:00</t>
+    <t>2022-03-26T21:58:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:58:42+00:00</t>
+    <t>2022-03-26T22:00:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T22:00:49+00:00</t>
+    <t>2022-03-28T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T14:06:51+00:00</t>
+    <t>2022-03-28T17:18:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T17:18:58+00:00</t>
+    <t>2022-03-28T18:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T18:48:26+00:00</t>
+    <t>2022-03-28T20:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T20:08:43+00:00</t>
+    <t>2022-03-28T23:34:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:34:19+00:00</t>
+    <t>2022-03-28T23:45:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:45:02+00:00</t>
+    <t>2022-03-28T23:47:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:47:33+00:00</t>
+    <t>2022-03-29T00:49:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T00:49:23+00:00</t>
+    <t>2022-03-29T01:03:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:03:03+00:00</t>
+    <t>2022-03-29T01:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:33:50+00:00</t>
+    <t>2022-03-29T22:51:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T22:51:35+00:00</t>
+    <t>2022-03-30T04:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T04:10:02+00:00</t>
+    <t>2022-03-30T05:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:07:06+00:00</t>
+    <t>2022-03-30T05:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:24:10+00:00</t>
+    <t>2022-03-30T15:00:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T15:00:01+00:00</t>
+    <t>2022-03-30T20:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T20:32:02+00:00</t>
+    <t>2022-03-31T03:49:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T03:49:14+00:00</t>
+    <t>2022-03-31T04:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:31:26+00:00</t>
+    <t>2022-03-31T04:46:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:46:55+00:00</t>
+    <t>2022-03-31T06:22:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:22:16+00:00</t>
+    <t>2022-03-31T06:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:42:10+00:00</t>
+    <t>2022-04-26T17:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T17:07:52+00:00</t>
+    <t>2022-05-27T14:27:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T14:27:29+00:00</t>
+    <t>2022-06-01T13:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:01:08+00:00</t>
+    <t>2022-09-27T20:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:02:38+00:00</t>
+    <t>2022-09-27T20:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:20:50+00:00</t>
+    <t>2022-09-27T20:30:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:30:57+00:00</t>
+    <t>2022-09-27T22:49:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T22:49:39+00:00</t>
+    <t>2022-09-27T23:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:00:34+00:00</t>
+    <t>2022-09-27T23:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:08:58+00:00</t>
+    <t>2022-10-27T10:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T10:56:05+00:00</t>
+    <t>2022-11-23T04:23:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T04:23:36+00:00</t>
+    <t>2022-11-23T11:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:18:03+00:00</t>
+    <t>2022-11-23T11:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:20:15+00:00</t>
+    <t>2022-11-23T15:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T15:17:18+00:00</t>
+    <t>2022-11-28T15:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T15:39:12+00:00</t>
+    <t>2022-11-28T23:56:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T23:56:31+00:00</t>
+    <t>2022-11-29T11:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:57:57+00:00</t>
+    <t>2022-11-30T13:59:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:59:42+00:00</t>
+    <t>2022-11-30T15:11:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T15:11:20+00:00</t>
+    <t>2022-11-30T15:45:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T15:45:43+00:00</t>
+    <t>2023-01-08T23:46:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-08T23:46:44+00:00</t>
+    <t>2023-01-09T00:16:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-09T00:16:31+00:00</t>
+    <t>2023-01-11T14:19:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Global (Whole world)</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>

--- a/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-Device-Property-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:19:24+00:00</t>
+    <t>2023-01-11T17:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
